--- a/Excel/Dadda_tree_HA.xlsx
+++ b/Excel/Dadda_tree_HA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lchis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lchis\OneDrive\Desktop\Dadda_tree\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6973714-3DCD-46D1-A7CA-1671ECB4169D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A5655-27AD-4B40-8E91-34EF20369953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10189,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE20D3-9796-4D3B-9CD2-E37D73BC34D0}">
   <dimension ref="A2:BR113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W49" sqref="W49:AR49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13454,13 +13454,13 @@
         <v>23</v>
       </c>
       <c r="AH25" s="81">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI25" s="81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ25" s="81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK25" s="81">
         <v>3</v>

--- a/Excel/Dadda_tree_HA.xlsx
+++ b/Excel/Dadda_tree_HA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lchis\OneDrive\Desktop\Dadda_tree\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianl\Documents\GitHub\Dadda_tree\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A5655-27AD-4B40-8E91-34EF20369953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F76301-4206-4CCF-BCFD-0DB4E84C0D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dadda tree" sheetId="1" r:id="rId1"/>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BY72"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI59" sqref="AI59:AX59"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BU27" sqref="BU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10189,8 +10189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EE20D3-9796-4D3B-9CD2-E37D73BC34D0}">
   <dimension ref="A2:BR113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+    <sheetView zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BN5" sqref="BN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/Dadda_tree_HA.xlsx
+++ b/Excel/Dadda_tree_HA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianl\Documents\GitHub\Dadda_tree\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F76301-4206-4CCF-BCFD-0DB4E84C0D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382D4F94-2AFD-48BD-A0D1-E55A518F99E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dadda tree" sheetId="1" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
   <dimension ref="A2:BY72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BU27" sqref="BU27"/>
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1116,6 +1116,12 @@
     <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>32</v>
       </c>
       <c r="AI3" s="1">
         <v>31</v>
@@ -1389,6 +1395,111 @@
       </c>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="AG7" s="1">
+        <v>34</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>31</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>30</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>29</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>28</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>27</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>26</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>25</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>24</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>23</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>22</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>21</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>19</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>18</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>17</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>16</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>15</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>14</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>13</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>12</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>11</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>10</v>
+      </c>
+      <c r="BF7">
+        <v>9</v>
+      </c>
+      <c r="BG7">
+        <v>8</v>
+      </c>
+      <c r="BH7">
+        <v>7</v>
+      </c>
+      <c r="BI7">
+        <v>6</v>
+      </c>
+      <c r="BJ7">
+        <v>5</v>
+      </c>
+      <c r="BK7">
+        <v>4</v>
+      </c>
+      <c r="BL7">
+        <v>3</v>
+      </c>
+      <c r="BM7">
+        <v>2</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
       <c r="BT7" s="29" t="s">
         <v>6</v>
       </c>
